--- a/proof-of-concept-libraries/template.xlsx
+++ b/proof-of-concept-libraries/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomartinelli/projects/delt/delt-core/proof-of-concept-libraries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55C040B-B53C-E74A-AD62-B22F24F9C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983FE285-5F5E-304C-AAA3-AB20B771F182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1700" windowWidth="27220" windowHeight="17000" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9191,8 +9191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K613"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A269" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="54.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9230,7 +9230,7 @@
         <v>961</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>960</v>
+        <v>1868</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>953</v>
@@ -15953,7 +15953,7 @@
   <dimension ref="A1:E612"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>

--- a/proof-of-concept-libraries/template.xlsx
+++ b/proof-of-concept-libraries/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomartinelli/projects/delt/delt-core/proof-of-concept-libraries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DA7317-8124-F143-B41D-6F0353E5CD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B64115-D644-4142-AAAE-35172EF49D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1700" windowWidth="27220" windowHeight="17000" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15959,7 +15959,7 @@
   <dimension ref="A1:E612"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F493" sqref="F493"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -26429,7 +26429,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
